--- a/人均GDP+人口集聚程度+产业高级化+外商投资水平+人均道路面积/PSM_汇总报告.xlsx
+++ b/人均GDP+人口集聚程度+产业高级化+外商投资水平+人均道路面积/PSM_汇总报告.xlsx
@@ -463,7 +463,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2846</v>
+        <v>2648</v>
       </c>
     </row>
     <row r="4">
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1423</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="5">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1423</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="6">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
     </row>
   </sheetData>
@@ -575,12 +575,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-2.61</t>
+          <t>-1.54</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>106.4</t>
+          <t>103.8</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -602,12 +602,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1.29</t>
+          <t>0.66</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>96.7</t>
+          <t>98.3</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -629,12 +629,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-3.86</t>
+          <t>-5.66</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>117.6</t>
+          <t>125.8</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -656,12 +656,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>7.23</t>
+          <t>6.16</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>76.1</t>
+          <t>79.7</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -683,12 +683,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-8.77</t>
+          <t>-8.15</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>-60.4</t>
+          <t>-63.2</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">

--- a/人均GDP+人口集聚程度+产业高级化+外商投资水平+人均道路面积/PSM_汇总报告.xlsx
+++ b/人均GDP+人口集聚程度+产业高级化+外商投资水平+人均道路面积/PSM_汇总报告.xlsx
@@ -463,7 +463,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2648</v>
+        <v>2846</v>
       </c>
     </row>
     <row r="4">
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1324</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="5">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1324</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="6">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
     </row>
   </sheetData>
@@ -575,12 +575,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-1.54</t>
+          <t>-2.61</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>103.8</t>
+          <t>106.4</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -602,12 +602,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.66</t>
+          <t>1.29</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>98.3</t>
+          <t>96.7</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -629,12 +629,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-5.66</t>
+          <t>-3.86</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>125.8</t>
+          <t>117.6</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -656,12 +656,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>6.16</t>
+          <t>7.23</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>79.7</t>
+          <t>76.1</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -683,12 +683,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-8.15</t>
+          <t>-8.77</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>-63.2</t>
+          <t>-60.4</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
